--- a/_example/write/write.xlsx
+++ b/_example/write/write.xlsx
@@ -14,15 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Gopher</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>marshaler</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>hello world</t>
   </si>
 </sst>
 </file>
@@ -339,13 +351,31 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/_example/write/write.xlsx
+++ b/_example/write/write.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>int</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>value2</t>
-  </si>
-  <si>
-    <t>hello world</t>
   </si>
 </sst>
 </file>
@@ -375,7 +372,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/_example/write/write.xlsx
+++ b/_example/write/write.xlsx
@@ -14,24 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>int</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>slice</t>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
   </si>
   <si>
     <t>marshaler</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>value2</t>
   </si>
 </sst>
 </file>
@@ -363,16 +369,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
